--- a/preTest_raw_data_regularity.xlsx
+++ b/preTest_raw_data_regularity.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alomb\OneDrive\Documents\PyCharm_projects\NeoReg\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829A0529-7F98-4E6B-9EF5-13E8A4A745A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838DC0CB-9C1A-45DF-9B75-94F68A40B94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
-    <sheet name="mean" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_data!$A$1:$W$39</definedName>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="110">
   <si>
     <t>StartDate</t>
   </si>
@@ -366,34 +365,19 @@
   </si>
   <si>
     <t>P22|P25|P16|P14|P24|P26|P21|P11|P23|P13|P12|P15</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>mean_figure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -421,15 +405,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,9 +728,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3476,178 +3457,4 @@
     <ignoredError sqref="C1 F1 H1 I1 J1 W1 C2:C38 F2:F38 H2:H38 I2:I38 J2:J38 L2:L38 S2:S38 W19:W26 W34 W38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067E02AA-50B8-4827-B95C-1316C4F3BA60}">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>44716.884641203702</v>
-      </c>
-      <c r="B2" s="3">
-        <v>44716.887986111113</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2.4814814814814814</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H2" s="5">
-        <v>4.4074074074074074</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4.5925925925925926</v>
-      </c>
-      <c r="J2" s="5">
-        <v>5.5185185185185182</v>
-      </c>
-      <c r="K2" s="5">
-        <v>3</v>
-      </c>
-      <c r="L2" s="5">
-        <v>3.1481481481481484</v>
-      </c>
-      <c r="M2" s="5">
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="N2" s="5">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="O2" s="5">
-        <v>4.6296296296296298</v>
-      </c>
-      <c r="P2" s="5">
-        <v>5.4814814814814818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>44716.888888888891</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44716.892002314817</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5">
-        <v>3.9555555555555557</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5">
-        <v>4.0246913580246915</v>
-      </c>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>44717.448171296295</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44717.453541666669</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
-        <v>1.7866280533437908</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5">
-        <v>1.722884398179422</v>
-      </c>
-      <c r="P4" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>